--- a/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
+++ b/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>ModuleName</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -596,10 +602,10 @@
         <v>24</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>19</v>

--- a/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
+++ b/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
   <si>
     <t>ModuleName</t>
   </si>
@@ -102,9 +102,6 @@
     <t>2233445566</t>
   </si>
   <si>
-    <t>Welcome to Notification test automation for OOFS.</t>
-  </si>
-  <si>
     <t>SummaryAddOOFS@gmail.com</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>3456127893</t>
   </si>
   <si>
-    <t>DuplicateChangeOOFS@gmail.com</t>
-  </si>
-  <si>
     <t>8888888888</t>
   </si>
   <si>
@@ -126,13 +120,34 @@
     <t>Very good</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>OOFS Notify</t>
+  </si>
+  <si>
+    <t>123208</t>
+  </si>
+  <si>
+    <t>123212</t>
+  </si>
+  <si>
+    <t>123217</t>
+  </si>
+  <si>
+    <t>OOFSDuplicate@gmail.com</t>
+  </si>
+  <si>
+    <t>123237</t>
+  </si>
+  <si>
+    <t>123241</t>
+  </si>
+  <si>
+    <t>123245</t>
   </si>
 </sst>
 </file>
@@ -475,49 +490,49 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+      <selection activeCell="AW12" sqref="AW12:AW15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.6328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7109375"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.85546875"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="41" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -567,7 +582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
@@ -601,11 +616,14 @@
       <c r="K2" t="s" s="0">
         <v>24</v>
       </c>
+      <c r="L2" t="s" s="0">
+        <v>39</v>
+      </c>
       <c r="AK2" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>19</v>
@@ -614,7 +632,7 @@
         <v>25</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -629,50 +647,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3:AX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.6328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7109375"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.85546875"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="41" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -722,7 +740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
@@ -739,10 +757,10 @@
         <v>3333333333</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>28</v>
       </c>
       <c r="H2" s="2">
         <v>5555555555</v>
@@ -756,6 +774,9 @@
       <c r="K2" t="s" s="0">
         <v>24</v>
       </c>
+      <c r="L2" t="s" s="0">
+        <v>40</v>
+      </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
       </c>
@@ -763,10 +784,10 @@
         <v>19</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -782,49 +803,49 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.6328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7109375"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.85546875"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="41" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -874,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
@@ -885,16 +906,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="0">
-        <v>91234123442</v>
+        <v>7123412344</v>
       </c>
       <c r="E2" s="2">
         <v>666666666</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>7777777777</v>
@@ -908,6 +929,9 @@
       <c r="K2" t="s" s="0">
         <v>24</v>
       </c>
+      <c r="L2" t="s" s="0">
+        <v>41</v>
+      </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
       </c>
@@ -915,10 +939,10 @@
         <v>19</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -934,49 +958,49 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.6328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.90625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7109375"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.85546875"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="41" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1026,7 +1050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
@@ -1037,16 +1061,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="0">
-        <v>653215890</v>
+        <v>6532158912</v>
       </c>
       <c r="E2" s="2">
         <v>3331117778</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>7777777777</v>
@@ -1060,6 +1084,9 @@
       <c r="K2" t="s" s="0">
         <v>24</v>
       </c>
+      <c r="L2" t="s" s="0">
+        <v>41</v>
+      </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
       </c>
@@ -1067,10 +1094,10 @@
         <v>19</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
+++ b/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>ModuleName</t>
   </si>
@@ -148,6 +148,72 @@
   </si>
   <si>
     <t>123245</t>
+  </si>
+  <si>
+    <t>123270</t>
+  </si>
+  <si>
+    <t>123275</t>
+  </si>
+  <si>
+    <t>123281</t>
+  </si>
+  <si>
+    <t>123322</t>
+  </si>
+  <si>
+    <t>123328</t>
+  </si>
+  <si>
+    <t>123332</t>
+  </si>
+  <si>
+    <t>123354</t>
+  </si>
+  <si>
+    <t>123358</t>
+  </si>
+  <si>
+    <t>123362</t>
+  </si>
+  <si>
+    <t>123374</t>
+  </si>
+  <si>
+    <t>123378</t>
+  </si>
+  <si>
+    <t>123382</t>
+  </si>
+  <si>
+    <t>123387</t>
+  </si>
+  <si>
+    <t>123391</t>
+  </si>
+  <si>
+    <t>123395</t>
+  </si>
+  <si>
+    <t>123451</t>
+  </si>
+  <si>
+    <t>123455</t>
+  </si>
+  <si>
+    <t>123464</t>
+  </si>
+  <si>
+    <t>123491</t>
+  </si>
+  <si>
+    <t>123495</t>
+  </si>
+  <si>
+    <t>123499</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -617,10 +683,10 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AL2" t="s" s="0">
         <v>32</v>
@@ -775,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
@@ -930,7 +996,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
@@ -1085,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>

--- a/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
+++ b/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
   <si>
     <t>ModuleName</t>
   </si>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>136161</t>
+  </si>
+  <si>
+    <t>136169</t>
+  </si>
+  <si>
+    <t>136178</t>
+  </si>
+  <si>
+    <t>136327</t>
+  </si>
+  <si>
+    <t>136331</t>
+  </si>
+  <si>
+    <t>136344</t>
+  </si>
+  <si>
+    <t>136348</t>
+  </si>
+  <si>
+    <t>136352</t>
   </si>
 </sst>
 </file>
@@ -683,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>63</v>
@@ -841,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
@@ -996,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
@@ -1151,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>

--- a/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
+++ b/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
   <si>
     <t>ModuleName</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>136352</t>
+  </si>
+  <si>
+    <t>159397</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>63</v>

--- a/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
+++ b/testData/Notification/WF2_Send_Notify_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="85">
   <si>
     <t>ModuleName</t>
   </si>
@@ -241,6 +241,42 @@
   </si>
   <si>
     <t>159397</t>
+  </si>
+  <si>
+    <t>159425</t>
+  </si>
+  <si>
+    <t>159433</t>
+  </si>
+  <si>
+    <t>159438</t>
+  </si>
+  <si>
+    <t>159442</t>
+  </si>
+  <si>
+    <t>159454</t>
+  </si>
+  <si>
+    <t>159460</t>
+  </si>
+  <si>
+    <t>159464</t>
+  </si>
+  <si>
+    <t>159468</t>
+  </si>
+  <si>
+    <t>159472</t>
+  </si>
+  <si>
+    <t>159536</t>
+  </si>
+  <si>
+    <t>159544</t>
+  </si>
+  <si>
+    <t>159550</t>
   </si>
 </sst>
 </file>
@@ -710,7 +746,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>63</v>
@@ -868,7 +904,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
@@ -1023,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
@@ -1178,7 +1214,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>21</v>
